--- a/data/mss_cardinality.xlsx
+++ b/data/mss_cardinality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AACCB5B-0635-4343-8211-D8CF2AD283D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1BFD8-207C-4600-BB8A-75CF13CF7B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5DD359F4-75A3-4E9E-A592-A06630D4F413}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5DD359F4-75A3-4E9E-A592-A06630D4F413}"/>
   </bookViews>
   <sheets>
     <sheet name="2-cube" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="4-cube" sheetId="3" r:id="rId3"/>
     <sheet name="5-cube" sheetId="4" r:id="rId4"/>
     <sheet name="6-cube" sheetId="5" r:id="rId5"/>
+    <sheet name="7-cube" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -167,7 +168,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>degree one polynomial</c:v>
+            <c:v>degree-1 polynomial</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -210,7 +211,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>degree two polynomial</c:v>
+            <c:v>degree-2 polynomial</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2064,8 +2065,90 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MSS of 7-cube</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2079,7 +2162,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2094,7 +2177,2976 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="441"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>101</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>102</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>103</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>104</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>105</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>106</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>107</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>108</c:v>
+              </c:pt>
+              <c:pt idx="101">
+                <c:v>109</c:v>
+              </c:pt>
+              <c:pt idx="102">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="103">
+                <c:v>111</c:v>
+              </c:pt>
+              <c:pt idx="104">
+                <c:v>112</c:v>
+              </c:pt>
+              <c:pt idx="105">
+                <c:v>113</c:v>
+              </c:pt>
+              <c:pt idx="106">
+                <c:v>114</c:v>
+              </c:pt>
+              <c:pt idx="107">
+                <c:v>115</c:v>
+              </c:pt>
+              <c:pt idx="108">
+                <c:v>116</c:v>
+              </c:pt>
+              <c:pt idx="109">
+                <c:v>117</c:v>
+              </c:pt>
+              <c:pt idx="110">
+                <c:v>118</c:v>
+              </c:pt>
+              <c:pt idx="111">
+                <c:v>119</c:v>
+              </c:pt>
+              <c:pt idx="112">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="113">
+                <c:v>121</c:v>
+              </c:pt>
+              <c:pt idx="114">
+                <c:v>122</c:v>
+              </c:pt>
+              <c:pt idx="115">
+                <c:v>123</c:v>
+              </c:pt>
+              <c:pt idx="116">
+                <c:v>124</c:v>
+              </c:pt>
+              <c:pt idx="117">
+                <c:v>125</c:v>
+              </c:pt>
+              <c:pt idx="118">
+                <c:v>126</c:v>
+              </c:pt>
+              <c:pt idx="119">
+                <c:v>127</c:v>
+              </c:pt>
+              <c:pt idx="120">
+                <c:v>128</c:v>
+              </c:pt>
+              <c:pt idx="121">
+                <c:v>129</c:v>
+              </c:pt>
+              <c:pt idx="122">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="123">
+                <c:v>131</c:v>
+              </c:pt>
+              <c:pt idx="124">
+                <c:v>132</c:v>
+              </c:pt>
+              <c:pt idx="125">
+                <c:v>133</c:v>
+              </c:pt>
+              <c:pt idx="126">
+                <c:v>134</c:v>
+              </c:pt>
+              <c:pt idx="127">
+                <c:v>135</c:v>
+              </c:pt>
+              <c:pt idx="128">
+                <c:v>136</c:v>
+              </c:pt>
+              <c:pt idx="129">
+                <c:v>137</c:v>
+              </c:pt>
+              <c:pt idx="130">
+                <c:v>138</c:v>
+              </c:pt>
+              <c:pt idx="131">
+                <c:v>139</c:v>
+              </c:pt>
+              <c:pt idx="132">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="133">
+                <c:v>141</c:v>
+              </c:pt>
+              <c:pt idx="134">
+                <c:v>142</c:v>
+              </c:pt>
+              <c:pt idx="135">
+                <c:v>143</c:v>
+              </c:pt>
+              <c:pt idx="136">
+                <c:v>144</c:v>
+              </c:pt>
+              <c:pt idx="137">
+                <c:v>145</c:v>
+              </c:pt>
+              <c:pt idx="138">
+                <c:v>146</c:v>
+              </c:pt>
+              <c:pt idx="139">
+                <c:v>147</c:v>
+              </c:pt>
+              <c:pt idx="140">
+                <c:v>148</c:v>
+              </c:pt>
+              <c:pt idx="141">
+                <c:v>149</c:v>
+              </c:pt>
+              <c:pt idx="142">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="143">
+                <c:v>151</c:v>
+              </c:pt>
+              <c:pt idx="144">
+                <c:v>152</c:v>
+              </c:pt>
+              <c:pt idx="145">
+                <c:v>153</c:v>
+              </c:pt>
+              <c:pt idx="146">
+                <c:v>154</c:v>
+              </c:pt>
+              <c:pt idx="147">
+                <c:v>155</c:v>
+              </c:pt>
+              <c:pt idx="148">
+                <c:v>156</c:v>
+              </c:pt>
+              <c:pt idx="149">
+                <c:v>157</c:v>
+              </c:pt>
+              <c:pt idx="150">
+                <c:v>158</c:v>
+              </c:pt>
+              <c:pt idx="151">
+                <c:v>159</c:v>
+              </c:pt>
+              <c:pt idx="152">
+                <c:v>160</c:v>
+              </c:pt>
+              <c:pt idx="153">
+                <c:v>161</c:v>
+              </c:pt>
+              <c:pt idx="154">
+                <c:v>162</c:v>
+              </c:pt>
+              <c:pt idx="155">
+                <c:v>163</c:v>
+              </c:pt>
+              <c:pt idx="156">
+                <c:v>164</c:v>
+              </c:pt>
+              <c:pt idx="157">
+                <c:v>165</c:v>
+              </c:pt>
+              <c:pt idx="158">
+                <c:v>166</c:v>
+              </c:pt>
+              <c:pt idx="159">
+                <c:v>167</c:v>
+              </c:pt>
+              <c:pt idx="160">
+                <c:v>168</c:v>
+              </c:pt>
+              <c:pt idx="161">
+                <c:v>169</c:v>
+              </c:pt>
+              <c:pt idx="162">
+                <c:v>170</c:v>
+              </c:pt>
+              <c:pt idx="163">
+                <c:v>171</c:v>
+              </c:pt>
+              <c:pt idx="164">
+                <c:v>172</c:v>
+              </c:pt>
+              <c:pt idx="165">
+                <c:v>173</c:v>
+              </c:pt>
+              <c:pt idx="166">
+                <c:v>174</c:v>
+              </c:pt>
+              <c:pt idx="167">
+                <c:v>175</c:v>
+              </c:pt>
+              <c:pt idx="168">
+                <c:v>176</c:v>
+              </c:pt>
+              <c:pt idx="169">
+                <c:v>177</c:v>
+              </c:pt>
+              <c:pt idx="170">
+                <c:v>178</c:v>
+              </c:pt>
+              <c:pt idx="171">
+                <c:v>179</c:v>
+              </c:pt>
+              <c:pt idx="172">
+                <c:v>180</c:v>
+              </c:pt>
+              <c:pt idx="173">
+                <c:v>181</c:v>
+              </c:pt>
+              <c:pt idx="174">
+                <c:v>182</c:v>
+              </c:pt>
+              <c:pt idx="175">
+                <c:v>183</c:v>
+              </c:pt>
+              <c:pt idx="176">
+                <c:v>184</c:v>
+              </c:pt>
+              <c:pt idx="177">
+                <c:v>185</c:v>
+              </c:pt>
+              <c:pt idx="178">
+                <c:v>186</c:v>
+              </c:pt>
+              <c:pt idx="179">
+                <c:v>187</c:v>
+              </c:pt>
+              <c:pt idx="180">
+                <c:v>188</c:v>
+              </c:pt>
+              <c:pt idx="181">
+                <c:v>189</c:v>
+              </c:pt>
+              <c:pt idx="182">
+                <c:v>190</c:v>
+              </c:pt>
+              <c:pt idx="183">
+                <c:v>191</c:v>
+              </c:pt>
+              <c:pt idx="184">
+                <c:v>192</c:v>
+              </c:pt>
+              <c:pt idx="185">
+                <c:v>193</c:v>
+              </c:pt>
+              <c:pt idx="186">
+                <c:v>194</c:v>
+              </c:pt>
+              <c:pt idx="187">
+                <c:v>195</c:v>
+              </c:pt>
+              <c:pt idx="188">
+                <c:v>196</c:v>
+              </c:pt>
+              <c:pt idx="189">
+                <c:v>197</c:v>
+              </c:pt>
+              <c:pt idx="190">
+                <c:v>198</c:v>
+              </c:pt>
+              <c:pt idx="191">
+                <c:v>199</c:v>
+              </c:pt>
+              <c:pt idx="192">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="193">
+                <c:v>201</c:v>
+              </c:pt>
+              <c:pt idx="194">
+                <c:v>202</c:v>
+              </c:pt>
+              <c:pt idx="195">
+                <c:v>203</c:v>
+              </c:pt>
+              <c:pt idx="196">
+                <c:v>204</c:v>
+              </c:pt>
+              <c:pt idx="197">
+                <c:v>205</c:v>
+              </c:pt>
+              <c:pt idx="198">
+                <c:v>206</c:v>
+              </c:pt>
+              <c:pt idx="199">
+                <c:v>207</c:v>
+              </c:pt>
+              <c:pt idx="200">
+                <c:v>208</c:v>
+              </c:pt>
+              <c:pt idx="201">
+                <c:v>209</c:v>
+              </c:pt>
+              <c:pt idx="202">
+                <c:v>210</c:v>
+              </c:pt>
+              <c:pt idx="203">
+                <c:v>211</c:v>
+              </c:pt>
+              <c:pt idx="204">
+                <c:v>212</c:v>
+              </c:pt>
+              <c:pt idx="205">
+                <c:v>213</c:v>
+              </c:pt>
+              <c:pt idx="206">
+                <c:v>214</c:v>
+              </c:pt>
+              <c:pt idx="207">
+                <c:v>215</c:v>
+              </c:pt>
+              <c:pt idx="208">
+                <c:v>216</c:v>
+              </c:pt>
+              <c:pt idx="209">
+                <c:v>217</c:v>
+              </c:pt>
+              <c:pt idx="210">
+                <c:v>218</c:v>
+              </c:pt>
+              <c:pt idx="211">
+                <c:v>219</c:v>
+              </c:pt>
+              <c:pt idx="212">
+                <c:v>220</c:v>
+              </c:pt>
+              <c:pt idx="213">
+                <c:v>221</c:v>
+              </c:pt>
+              <c:pt idx="214">
+                <c:v>222</c:v>
+              </c:pt>
+              <c:pt idx="215">
+                <c:v>223</c:v>
+              </c:pt>
+              <c:pt idx="216">
+                <c:v>224</c:v>
+              </c:pt>
+              <c:pt idx="217">
+                <c:v>225</c:v>
+              </c:pt>
+              <c:pt idx="218">
+                <c:v>226</c:v>
+              </c:pt>
+              <c:pt idx="219">
+                <c:v>227</c:v>
+              </c:pt>
+              <c:pt idx="220">
+                <c:v>228</c:v>
+              </c:pt>
+              <c:pt idx="221">
+                <c:v>229</c:v>
+              </c:pt>
+              <c:pt idx="222">
+                <c:v>230</c:v>
+              </c:pt>
+              <c:pt idx="223">
+                <c:v>231</c:v>
+              </c:pt>
+              <c:pt idx="224">
+                <c:v>232</c:v>
+              </c:pt>
+              <c:pt idx="225">
+                <c:v>233</c:v>
+              </c:pt>
+              <c:pt idx="226">
+                <c:v>234</c:v>
+              </c:pt>
+              <c:pt idx="227">
+                <c:v>235</c:v>
+              </c:pt>
+              <c:pt idx="228">
+                <c:v>236</c:v>
+              </c:pt>
+              <c:pt idx="229">
+                <c:v>237</c:v>
+              </c:pt>
+              <c:pt idx="230">
+                <c:v>238</c:v>
+              </c:pt>
+              <c:pt idx="231">
+                <c:v>239</c:v>
+              </c:pt>
+              <c:pt idx="232">
+                <c:v>240</c:v>
+              </c:pt>
+              <c:pt idx="233">
+                <c:v>241</c:v>
+              </c:pt>
+              <c:pt idx="234">
+                <c:v>242</c:v>
+              </c:pt>
+              <c:pt idx="235">
+                <c:v>243</c:v>
+              </c:pt>
+              <c:pt idx="236">
+                <c:v>244</c:v>
+              </c:pt>
+              <c:pt idx="237">
+                <c:v>245</c:v>
+              </c:pt>
+              <c:pt idx="238">
+                <c:v>246</c:v>
+              </c:pt>
+              <c:pt idx="239">
+                <c:v>247</c:v>
+              </c:pt>
+              <c:pt idx="240">
+                <c:v>248</c:v>
+              </c:pt>
+              <c:pt idx="241">
+                <c:v>249</c:v>
+              </c:pt>
+              <c:pt idx="242">
+                <c:v>250</c:v>
+              </c:pt>
+              <c:pt idx="243">
+                <c:v>251</c:v>
+              </c:pt>
+              <c:pt idx="244">
+                <c:v>252</c:v>
+              </c:pt>
+              <c:pt idx="245">
+                <c:v>253</c:v>
+              </c:pt>
+              <c:pt idx="246">
+                <c:v>254</c:v>
+              </c:pt>
+              <c:pt idx="247">
+                <c:v>255</c:v>
+              </c:pt>
+              <c:pt idx="248">
+                <c:v>256</c:v>
+              </c:pt>
+              <c:pt idx="249">
+                <c:v>257</c:v>
+              </c:pt>
+              <c:pt idx="250">
+                <c:v>258</c:v>
+              </c:pt>
+              <c:pt idx="251">
+                <c:v>259</c:v>
+              </c:pt>
+              <c:pt idx="252">
+                <c:v>260</c:v>
+              </c:pt>
+              <c:pt idx="253">
+                <c:v>261</c:v>
+              </c:pt>
+              <c:pt idx="254">
+                <c:v>262</c:v>
+              </c:pt>
+              <c:pt idx="255">
+                <c:v>263</c:v>
+              </c:pt>
+              <c:pt idx="256">
+                <c:v>264</c:v>
+              </c:pt>
+              <c:pt idx="257">
+                <c:v>265</c:v>
+              </c:pt>
+              <c:pt idx="258">
+                <c:v>266</c:v>
+              </c:pt>
+              <c:pt idx="259">
+                <c:v>267</c:v>
+              </c:pt>
+              <c:pt idx="260">
+                <c:v>268</c:v>
+              </c:pt>
+              <c:pt idx="261">
+                <c:v>269</c:v>
+              </c:pt>
+              <c:pt idx="262">
+                <c:v>270</c:v>
+              </c:pt>
+              <c:pt idx="263">
+                <c:v>271</c:v>
+              </c:pt>
+              <c:pt idx="264">
+                <c:v>272</c:v>
+              </c:pt>
+              <c:pt idx="265">
+                <c:v>273</c:v>
+              </c:pt>
+              <c:pt idx="266">
+                <c:v>274</c:v>
+              </c:pt>
+              <c:pt idx="267">
+                <c:v>275</c:v>
+              </c:pt>
+              <c:pt idx="268">
+                <c:v>276</c:v>
+              </c:pt>
+              <c:pt idx="269">
+                <c:v>277</c:v>
+              </c:pt>
+              <c:pt idx="270">
+                <c:v>278</c:v>
+              </c:pt>
+              <c:pt idx="271">
+                <c:v>279</c:v>
+              </c:pt>
+              <c:pt idx="272">
+                <c:v>280</c:v>
+              </c:pt>
+              <c:pt idx="273">
+                <c:v>281</c:v>
+              </c:pt>
+              <c:pt idx="274">
+                <c:v>282</c:v>
+              </c:pt>
+              <c:pt idx="275">
+                <c:v>283</c:v>
+              </c:pt>
+              <c:pt idx="276">
+                <c:v>284</c:v>
+              </c:pt>
+              <c:pt idx="277">
+                <c:v>285</c:v>
+              </c:pt>
+              <c:pt idx="278">
+                <c:v>286</c:v>
+              </c:pt>
+              <c:pt idx="279">
+                <c:v>287</c:v>
+              </c:pt>
+              <c:pt idx="280">
+                <c:v>288</c:v>
+              </c:pt>
+              <c:pt idx="281">
+                <c:v>289</c:v>
+              </c:pt>
+              <c:pt idx="282">
+                <c:v>290</c:v>
+              </c:pt>
+              <c:pt idx="283">
+                <c:v>291</c:v>
+              </c:pt>
+              <c:pt idx="284">
+                <c:v>292</c:v>
+              </c:pt>
+              <c:pt idx="285">
+                <c:v>293</c:v>
+              </c:pt>
+              <c:pt idx="286">
+                <c:v>294</c:v>
+              </c:pt>
+              <c:pt idx="287">
+                <c:v>295</c:v>
+              </c:pt>
+              <c:pt idx="288">
+                <c:v>296</c:v>
+              </c:pt>
+              <c:pt idx="289">
+                <c:v>297</c:v>
+              </c:pt>
+              <c:pt idx="290">
+                <c:v>298</c:v>
+              </c:pt>
+              <c:pt idx="291">
+                <c:v>299</c:v>
+              </c:pt>
+              <c:pt idx="292">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="293">
+                <c:v>301</c:v>
+              </c:pt>
+              <c:pt idx="294">
+                <c:v>302</c:v>
+              </c:pt>
+              <c:pt idx="295">
+                <c:v>303</c:v>
+              </c:pt>
+              <c:pt idx="296">
+                <c:v>304</c:v>
+              </c:pt>
+              <c:pt idx="297">
+                <c:v>305</c:v>
+              </c:pt>
+              <c:pt idx="298">
+                <c:v>306</c:v>
+              </c:pt>
+              <c:pt idx="299">
+                <c:v>307</c:v>
+              </c:pt>
+              <c:pt idx="300">
+                <c:v>308</c:v>
+              </c:pt>
+              <c:pt idx="301">
+                <c:v>309</c:v>
+              </c:pt>
+              <c:pt idx="302">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="303">
+                <c:v>311</c:v>
+              </c:pt>
+              <c:pt idx="304">
+                <c:v>312</c:v>
+              </c:pt>
+              <c:pt idx="305">
+                <c:v>313</c:v>
+              </c:pt>
+              <c:pt idx="306">
+                <c:v>314</c:v>
+              </c:pt>
+              <c:pt idx="307">
+                <c:v>315</c:v>
+              </c:pt>
+              <c:pt idx="308">
+                <c:v>316</c:v>
+              </c:pt>
+              <c:pt idx="309">
+                <c:v>317</c:v>
+              </c:pt>
+              <c:pt idx="310">
+                <c:v>318</c:v>
+              </c:pt>
+              <c:pt idx="311">
+                <c:v>319</c:v>
+              </c:pt>
+              <c:pt idx="312">
+                <c:v>320</c:v>
+              </c:pt>
+              <c:pt idx="313">
+                <c:v>321</c:v>
+              </c:pt>
+              <c:pt idx="314">
+                <c:v>322</c:v>
+              </c:pt>
+              <c:pt idx="315">
+                <c:v>323</c:v>
+              </c:pt>
+              <c:pt idx="316">
+                <c:v>324</c:v>
+              </c:pt>
+              <c:pt idx="317">
+                <c:v>325</c:v>
+              </c:pt>
+              <c:pt idx="318">
+                <c:v>326</c:v>
+              </c:pt>
+              <c:pt idx="319">
+                <c:v>327</c:v>
+              </c:pt>
+              <c:pt idx="320">
+                <c:v>328</c:v>
+              </c:pt>
+              <c:pt idx="321">
+                <c:v>329</c:v>
+              </c:pt>
+              <c:pt idx="322">
+                <c:v>330</c:v>
+              </c:pt>
+              <c:pt idx="323">
+                <c:v>331</c:v>
+              </c:pt>
+              <c:pt idx="324">
+                <c:v>332</c:v>
+              </c:pt>
+              <c:pt idx="325">
+                <c:v>333</c:v>
+              </c:pt>
+              <c:pt idx="326">
+                <c:v>334</c:v>
+              </c:pt>
+              <c:pt idx="327">
+                <c:v>335</c:v>
+              </c:pt>
+              <c:pt idx="328">
+                <c:v>336</c:v>
+              </c:pt>
+              <c:pt idx="329">
+                <c:v>337</c:v>
+              </c:pt>
+              <c:pt idx="330">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="331">
+                <c:v>339</c:v>
+              </c:pt>
+              <c:pt idx="332">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="333">
+                <c:v>341</c:v>
+              </c:pt>
+              <c:pt idx="334">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="335">
+                <c:v>343</c:v>
+              </c:pt>
+              <c:pt idx="336">
+                <c:v>344</c:v>
+              </c:pt>
+              <c:pt idx="337">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="338">
+                <c:v>346</c:v>
+              </c:pt>
+              <c:pt idx="339">
+                <c:v>347</c:v>
+              </c:pt>
+              <c:pt idx="340">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="341">
+                <c:v>349</c:v>
+              </c:pt>
+              <c:pt idx="342">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="343">
+                <c:v>351</c:v>
+              </c:pt>
+              <c:pt idx="344">
+                <c:v>352</c:v>
+              </c:pt>
+              <c:pt idx="345">
+                <c:v>353</c:v>
+              </c:pt>
+              <c:pt idx="346">
+                <c:v>354</c:v>
+              </c:pt>
+              <c:pt idx="347">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="348">
+                <c:v>356</c:v>
+              </c:pt>
+              <c:pt idx="349">
+                <c:v>357</c:v>
+              </c:pt>
+              <c:pt idx="350">
+                <c:v>358</c:v>
+              </c:pt>
+              <c:pt idx="351">
+                <c:v>359</c:v>
+              </c:pt>
+              <c:pt idx="352">
+                <c:v>360</c:v>
+              </c:pt>
+              <c:pt idx="353">
+                <c:v>361</c:v>
+              </c:pt>
+              <c:pt idx="354">
+                <c:v>362</c:v>
+              </c:pt>
+              <c:pt idx="355">
+                <c:v>363</c:v>
+              </c:pt>
+              <c:pt idx="356">
+                <c:v>364</c:v>
+              </c:pt>
+              <c:pt idx="357">
+                <c:v>365</c:v>
+              </c:pt>
+              <c:pt idx="358">
+                <c:v>366</c:v>
+              </c:pt>
+              <c:pt idx="359">
+                <c:v>367</c:v>
+              </c:pt>
+              <c:pt idx="360">
+                <c:v>368</c:v>
+              </c:pt>
+              <c:pt idx="361">
+                <c:v>369</c:v>
+              </c:pt>
+              <c:pt idx="362">
+                <c:v>370</c:v>
+              </c:pt>
+              <c:pt idx="363">
+                <c:v>371</c:v>
+              </c:pt>
+              <c:pt idx="364">
+                <c:v>372</c:v>
+              </c:pt>
+              <c:pt idx="365">
+                <c:v>373</c:v>
+              </c:pt>
+              <c:pt idx="366">
+                <c:v>374</c:v>
+              </c:pt>
+              <c:pt idx="367">
+                <c:v>375</c:v>
+              </c:pt>
+              <c:pt idx="368">
+                <c:v>376</c:v>
+              </c:pt>
+              <c:pt idx="369">
+                <c:v>377</c:v>
+              </c:pt>
+              <c:pt idx="370">
+                <c:v>378</c:v>
+              </c:pt>
+              <c:pt idx="371">
+                <c:v>379</c:v>
+              </c:pt>
+              <c:pt idx="372">
+                <c:v>380</c:v>
+              </c:pt>
+              <c:pt idx="373">
+                <c:v>381</c:v>
+              </c:pt>
+              <c:pt idx="374">
+                <c:v>382</c:v>
+              </c:pt>
+              <c:pt idx="375">
+                <c:v>383</c:v>
+              </c:pt>
+              <c:pt idx="376">
+                <c:v>384</c:v>
+              </c:pt>
+              <c:pt idx="377">
+                <c:v>385</c:v>
+              </c:pt>
+              <c:pt idx="378">
+                <c:v>386</c:v>
+              </c:pt>
+              <c:pt idx="379">
+                <c:v>387</c:v>
+              </c:pt>
+              <c:pt idx="380">
+                <c:v>388</c:v>
+              </c:pt>
+              <c:pt idx="381">
+                <c:v>389</c:v>
+              </c:pt>
+              <c:pt idx="382">
+                <c:v>390</c:v>
+              </c:pt>
+              <c:pt idx="383">
+                <c:v>391</c:v>
+              </c:pt>
+              <c:pt idx="384">
+                <c:v>392</c:v>
+              </c:pt>
+              <c:pt idx="385">
+                <c:v>393</c:v>
+              </c:pt>
+              <c:pt idx="386">
+                <c:v>394</c:v>
+              </c:pt>
+              <c:pt idx="387">
+                <c:v>395</c:v>
+              </c:pt>
+              <c:pt idx="388">
+                <c:v>396</c:v>
+              </c:pt>
+              <c:pt idx="389">
+                <c:v>397</c:v>
+              </c:pt>
+              <c:pt idx="390">
+                <c:v>398</c:v>
+              </c:pt>
+              <c:pt idx="391">
+                <c:v>399</c:v>
+              </c:pt>
+              <c:pt idx="392">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="393">
+                <c:v>401</c:v>
+              </c:pt>
+              <c:pt idx="394">
+                <c:v>402</c:v>
+              </c:pt>
+              <c:pt idx="395">
+                <c:v>403</c:v>
+              </c:pt>
+              <c:pt idx="396">
+                <c:v>404</c:v>
+              </c:pt>
+              <c:pt idx="397">
+                <c:v>405</c:v>
+              </c:pt>
+              <c:pt idx="398">
+                <c:v>406</c:v>
+              </c:pt>
+              <c:pt idx="399">
+                <c:v>407</c:v>
+              </c:pt>
+              <c:pt idx="400">
+                <c:v>408</c:v>
+              </c:pt>
+              <c:pt idx="401">
+                <c:v>409</c:v>
+              </c:pt>
+              <c:pt idx="402">
+                <c:v>410</c:v>
+              </c:pt>
+              <c:pt idx="403">
+                <c:v>411</c:v>
+              </c:pt>
+              <c:pt idx="404">
+                <c:v>412</c:v>
+              </c:pt>
+              <c:pt idx="405">
+                <c:v>413</c:v>
+              </c:pt>
+              <c:pt idx="406">
+                <c:v>414</c:v>
+              </c:pt>
+              <c:pt idx="407">
+                <c:v>415</c:v>
+              </c:pt>
+              <c:pt idx="408">
+                <c:v>416</c:v>
+              </c:pt>
+              <c:pt idx="409">
+                <c:v>417</c:v>
+              </c:pt>
+              <c:pt idx="410">
+                <c:v>418</c:v>
+              </c:pt>
+              <c:pt idx="411">
+                <c:v>419</c:v>
+              </c:pt>
+              <c:pt idx="412">
+                <c:v>420</c:v>
+              </c:pt>
+              <c:pt idx="413">
+                <c:v>421</c:v>
+              </c:pt>
+              <c:pt idx="414">
+                <c:v>422</c:v>
+              </c:pt>
+              <c:pt idx="415">
+                <c:v>423</c:v>
+              </c:pt>
+              <c:pt idx="416">
+                <c:v>424</c:v>
+              </c:pt>
+              <c:pt idx="417">
+                <c:v>425</c:v>
+              </c:pt>
+              <c:pt idx="418">
+                <c:v>426</c:v>
+              </c:pt>
+              <c:pt idx="419">
+                <c:v>427</c:v>
+              </c:pt>
+              <c:pt idx="420">
+                <c:v>428</c:v>
+              </c:pt>
+              <c:pt idx="421">
+                <c:v>429</c:v>
+              </c:pt>
+              <c:pt idx="422">
+                <c:v>430</c:v>
+              </c:pt>
+              <c:pt idx="423">
+                <c:v>431</c:v>
+              </c:pt>
+              <c:pt idx="424">
+                <c:v>432</c:v>
+              </c:pt>
+              <c:pt idx="425">
+                <c:v>433</c:v>
+              </c:pt>
+              <c:pt idx="426">
+                <c:v>434</c:v>
+              </c:pt>
+              <c:pt idx="427">
+                <c:v>435</c:v>
+              </c:pt>
+              <c:pt idx="428">
+                <c:v>436</c:v>
+              </c:pt>
+              <c:pt idx="429">
+                <c:v>437</c:v>
+              </c:pt>
+              <c:pt idx="430">
+                <c:v>438</c:v>
+              </c:pt>
+              <c:pt idx="431">
+                <c:v>439</c:v>
+              </c:pt>
+              <c:pt idx="432">
+                <c:v>440</c:v>
+              </c:pt>
+              <c:pt idx="433">
+                <c:v>441</c:v>
+              </c:pt>
+              <c:pt idx="434">
+                <c:v>442</c:v>
+              </c:pt>
+              <c:pt idx="435">
+                <c:v>443</c:v>
+              </c:pt>
+              <c:pt idx="436">
+                <c:v>444</c:v>
+              </c:pt>
+              <c:pt idx="437">
+                <c:v>445</c:v>
+              </c:pt>
+              <c:pt idx="438">
+                <c:v>446</c:v>
+              </c:pt>
+              <c:pt idx="439">
+                <c:v>447</c:v>
+              </c:pt>
+              <c:pt idx="440">
+                <c:v>448</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'7-cube'!$A$1:$A$448</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'7-cube'!$A$8:$A$448</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="441"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13440</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26880</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53760</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26880</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80640</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53760</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80640</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53888</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107520</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>174720</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>168448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206080</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>224280</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>273280</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>336000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>398720</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>410368</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>470400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>403200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>685440</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>866880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>731136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>604800</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1196160</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>992768</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1227520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1400448</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1487360</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2084411</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2163840</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1599360</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3018624</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2993760</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3397632</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3682560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4045440</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4392640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5371520</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5128256</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6883968</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7355040</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7378560</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8543360</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11119360</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11202856</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11992960</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11736704</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15469440</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16998912</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19295360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18410560</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24351488</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27090000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31428992</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30066176</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34760320</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38754464</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>46381440</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>46149376</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>52134656</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52181500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57947904</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>61911360</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76967296</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>74989376</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79237760</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>81865280</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102412800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>107285696</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>115682688</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>113214080</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>132424320</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>146263040</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>155249920</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>141955072</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>153578880</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>164865568</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>170562560</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>152574016</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>152593280</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>156179520</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>158162816</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>136478720</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>122962560</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>120456784</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>126855680</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>118463296</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>105862400</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85502144</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>68697216</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>51103360</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>38060288</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26998720</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19075840</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12432448</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8709120</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5223680</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2894080</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1500800</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>853888</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>327040</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>98560</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>29120</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C82-4520-901C-28DD65676BFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="581232488"/>
+        <c:axId val="581236096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="581232488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cardinality of MSS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581236096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="581236096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of MSSs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581232488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2614,7 +5666,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>degree one polynomial</c:v>
+            <c:v>degree-1 polynomial</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2681,7 +5733,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>degree two polynomial</c:v>
+            <c:v>degree-2 polynomial</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3550,7 +6602,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>degree one polynomial</c:v>
+            <c:v>degree-1 polynomial</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3784,7 +6836,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>degree two polynomial</c:v>
+            <c:v>degree-2 polynomial</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -6813,6 +9865,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>degree-1 polynomial</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7332,6 +10387,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>degree-2 polynomial</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -7923,6 +10981,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8203,6 +11262,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9066,6 +12165,509 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13977,6 +17579,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09488DDE-D57B-45C7-AB64-AB22C30CFBF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14277,7 +17920,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14325,7 +17968,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14709,7 +18352,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15364,8 +19007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F347F7-059E-4382-9200-1F5E8821B112}">
   <dimension ref="A1:A192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16334,4 +19977,2260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D9091-3A0A-4A55-B2EF-1F4A475E5E0A}">
+  <dimension ref="A1:A448"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>80640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>80640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>53888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>107520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>174720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>168448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>89600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>206080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>224280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>273280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>398720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>410368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>470400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>403200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>685440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>866880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>731136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>604800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1196160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>992768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1227520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1400448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1487360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2084411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2163840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1599360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3018624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2993760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3397632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3682560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4045440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4392640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5371520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5128256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6883968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7355040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7378560</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8543360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>11119360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>11202856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11992960</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>11736704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>15469440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>16998912</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>19295360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>18410560</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>24351488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>27090000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>31428992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>30066176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>34760320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>38754464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>46381440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>46149376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>52134656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>52181500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>57947904</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>61911360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>76967296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>74989376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>79237760</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>81865280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102412800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>107285696</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>115682688</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>113214080</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>132424320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>146263040</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>155249920</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>141955072</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>153578880</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>164865568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>170562560</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>152574016</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>152593280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>156179520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>158162816</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>136478720</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>122962560</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120456784</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>126855680</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>118463296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>105862400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>85502144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>68697216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>51103360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>38060288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>26998720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>19075840</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>12432448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>8709120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5223680</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2894080</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1500800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>853888</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>327040</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>98560</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>29120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>